--- a/01.SCCM-Patch-Management-&-Deployment-Plan/Deployment_Plan_WUpdates_Calendario_2020.xlsx
+++ b/01.SCCM-Patch-Management-&-Deployment-Plan/Deployment_Plan_WUpdates_Calendario_2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B113315F-66B6-425D-8C4A-6D28F933DDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B9D992-C208-497D-AB4C-055FFD03E51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario 2020 WUpdates" sheetId="6" r:id="rId1"/>
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,6 +427,32 @@
     <xf numFmtId="164" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,46 +465,12 @@
     <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{61B06435-D808-48CC-8E65-5197B0A342F8}"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="71">
     <dxf>
       <fill>
         <patternFill>
@@ -504,6 +496,11 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -547,11 +544,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -564,6 +556,11 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -571,11 +568,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -600,6 +592,14 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -607,6 +607,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
@@ -631,12 +640,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="mmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="mmmm"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
@@ -649,12 +652,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="mmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="mmmm"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
@@ -703,11 +700,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -720,6 +712,11 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -727,6 +724,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
@@ -739,15 +745,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="mmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="mmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="mmmm"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
@@ -760,11 +757,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -801,6 +793,11 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -820,11 +817,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -859,13 +851,6 @@
       <font>
         <color rgb="FFC00000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="mmmm"/>
@@ -1260,7 +1245,7 @@
   <dimension ref="B1:X47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1279,242 +1264,242 @@
   <sheetData>
     <row r="1" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
     </row>
     <row r="3" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
     </row>
     <row r="7" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
     </row>
     <row r="8" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
     </row>
     <row r="9" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
     </row>
     <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
     </row>
     <row r="12" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
@@ -1542,35 +1527,35 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="2:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="15">
+      <c r="B13" s="27">
         <v>43831</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="15">
+      <c r="J13" s="27">
         <v>43862</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="15">
+      <c r="R13" s="27">
         <v>43891</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="17"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
     </row>
     <row r="14" spans="2:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -1645,7 +1630,7 @@
       <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="20">
         <v>2</v>
       </c>
       <c r="F15" s="11">
@@ -1904,22 +1889,22 @@
         <v>7</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="30">
+      <c r="J19" s="20">
         <v>24</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="20">
         <v>25</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="20">
         <v>26</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="20">
         <v>27</v>
       </c>
       <c r="N19" s="11">
         <v>28</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="20">
         <v>29</v>
       </c>
       <c r="P19" s="3"/>
@@ -1933,16 +1918,16 @@
       <c r="T19" s="11">
         <v>25</v>
       </c>
-      <c r="U19" s="30">
+      <c r="U19" s="20">
         <v>26</v>
       </c>
-      <c r="V19" s="30">
+      <c r="V19" s="20">
         <v>27</v>
       </c>
-      <c r="W19" s="30">
+      <c r="W19" s="20">
         <v>28</v>
       </c>
-      <c r="X19" s="30">
+      <c r="X19" s="20">
         <v>29</v>
       </c>
     </row>
@@ -1991,10 +1976,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="10"/>
-      <c r="R20" s="30">
+      <c r="R20" s="20">
         <v>30</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="20">
         <v>31</v>
       </c>
       <c r="T20" s="3"/>
@@ -2029,35 +2014,35 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="2:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="15">
+      <c r="B22" s="27">
         <v>43922</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="15">
+      <c r="J22" s="27">
         <v>43952</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="15">
+      <c r="R22" s="27">
         <v>43983</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="17"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="29"/>
     </row>
     <row r="23" spans="2:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
@@ -2526,35 +2511,35 @@
       <c r="X30" s="10"/>
     </row>
     <row r="31" spans="2:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="15">
+      <c r="B31" s="27">
         <v>44013</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="15">
+      <c r="J31" s="27">
         <v>44044</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="15">
+      <c r="R31" s="27">
         <v>44075</v>
       </c>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="17"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="29"/>
     </row>
     <row r="32" spans="2:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
@@ -2647,7 +2632,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="29">
+      <c r="O33" s="12">
         <v>1</v>
       </c>
       <c r="P33" s="12">
@@ -2983,35 +2968,35 @@
       <c r="X39" s="10"/>
     </row>
     <row r="40" spans="2:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="15">
+      <c r="B40" s="27">
         <v>44105</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="15">
+      <c r="J40" s="27">
         <v>44136</v>
       </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="17"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="29"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="15">
+      <c r="R40" s="27">
         <v>44166</v>
       </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="17"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="29"/>
     </row>
     <row r="41" spans="2:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
@@ -3355,19 +3340,19 @@
       <c r="K46" s="11">
         <v>24</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="20">
         <v>25</v>
       </c>
-      <c r="M46" s="30">
+      <c r="M46" s="20">
         <v>26</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="20">
         <v>27</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="20">
         <v>28</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="20">
         <v>29</v>
       </c>
       <c r="Q46" s="10"/>
@@ -3416,115 +3401,107 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="R22:X22"/>
+    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="R31:X31"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="R40:X40"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:P31"/>
     <mergeCell ref="D8:X8"/>
     <mergeCell ref="B11:X11"/>
     <mergeCell ref="D2:X2"/>
     <mergeCell ref="D4:X4"/>
     <mergeCell ref="D6:X6"/>
     <mergeCell ref="B10:X10"/>
-    <mergeCell ref="R31:X31"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="R40:X40"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="R22:X22"/>
-    <mergeCell ref="R13:X13"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="J13:P13"/>
   </mergeCells>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="72" priority="81">
+    <cfRule type="expression" dxfId="70" priority="81">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="71" priority="80">
+    <cfRule type="expression" dxfId="69" priority="80">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="70" priority="79">
+    <cfRule type="expression" dxfId="68" priority="79">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="69" priority="78">
+    <cfRule type="expression" dxfId="67" priority="78">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C15 E15">
+    <cfRule type="expression" dxfId="66" priority="68">
+      <formula>OR(WEEKDAY(B15,1)=1,WEEKDAY(B15,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24">
-    <cfRule type="cellIs" dxfId="68" priority="43" operator="equal">
+    <cfRule type="expression" dxfId="64" priority="44">
+      <formula>OR(WEEKDAY(B24,1)=1,WEEKDAY(B24,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="43" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="44">
-      <formula>OR(WEEKDAY(B24,1)=1,WEEKDAY(B24,1)=7)</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33">
-    <cfRule type="cellIs" dxfId="66" priority="41" operator="equal">
+    <cfRule type="expression" dxfId="62" priority="42">
+      <formula>OR(WEEKDAY(B33,1)=1,WEEKDAY(B33,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="41" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="42">
-      <formula>OR(WEEKDAY(B33,1)=1,WEEKDAY(B33,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C15 E15">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:D42">
+    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="68">
-      <formula>OR(WEEKDAY(B15,1)=1,WEEKDAY(B15,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:D42">
-    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
+    <cfRule type="expression" dxfId="59" priority="12">
+      <formula>OR(WEEKDAY(B42,1)=1,WEEKDAY(B42,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F29">
+    <cfRule type="cellIs" dxfId="58" priority="45" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="12">
-      <formula>OR(WEEKDAY(B42,1)=1,WEEKDAY(B42,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
-    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
+    <cfRule type="expression" dxfId="57" priority="46">
+      <formula>OR(WEEKDAY(B29,1)=1,WEEKDAY(B29,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:H38">
+    <cfRule type="expression" dxfId="56" priority="40">
+      <formula>OR(WEEKDAY(B38,1)=1,WEEKDAY(B38,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="46">
-      <formula>OR(WEEKDAY(B29,1)=1,WEEKDAY(B29,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:H20 G19:H19">
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28 G28:H29">
+    <cfRule type="expression" dxfId="54" priority="48">
+      <formula>OR(WEEKDAY(F28,1)=1,WEEKDAY(F28,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19 B20:H20">
+    <cfRule type="expression" dxfId="52" priority="66">
       <formula>OR(WEEKDAY(B19,1)=1,WEEKDAY(B19,1)=7)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:H38">
-    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="40">
-      <formula>OR(WEEKDAY(B38,1)=1,WEEKDAY(B38,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:H47 H46">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="14">
-      <formula>OR(WEEKDAY(B46,1)=1,WEEKDAY(B46,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H29 F28">
-    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="48">
-      <formula>OR(WEEKDAY(F28,1)=1,WEEKDAY(F28,1)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H37">
@@ -3535,199 +3512,207 @@
       <formula>OR(WEEKDAY(G37,1)=1,WEEKDAY(G37,1)=7)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H46 B47:H47">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="14">
+      <formula>OR(WEEKDAY(B46,1)=1,WEEKDAY(B46,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J13 J22">
-    <cfRule type="expression" dxfId="48" priority="75">
+    <cfRule type="expression" dxfId="46" priority="75">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="47" priority="76">
+    <cfRule type="expression" dxfId="45" priority="76">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="46" priority="77">
+    <cfRule type="expression" dxfId="44" priority="77">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J19:M19 O19:P19 J20:P20">
+    <cfRule type="cellIs" dxfId="43" priority="63" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="64">
+      <formula>OR(WEEKDAY(J19,1)=1,WEEKDAY(J19,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:M24">
+    <cfRule type="expression" dxfId="41" priority="52">
+      <formula>OR(WEEKDAY(J24,1)=1,WEEKDAY(J24,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:N15">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="6">
+      <formula>OR(WEEKDAY(J15,1)=1,WEEKDAY(J15,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:O33">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="34">
+      <formula>OR(WEEKDAY(J33,1)=1,WEEKDAY(J33,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:O42">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="2">
+      <formula>OR(WEEKDAY(J42,1)=1,WEEKDAY(J42,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:P29">
+    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="50">
+      <formula>OR(WEEKDAY(J29,1)=1,WEEKDAY(J29,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>OR(WEEKDAY(K47,1)=1,WEEKDAY(K47,1)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:M24">
-    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+  <conditionalFormatting sqref="K38:P38">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="52">
-      <formula>OR(WEEKDAY(J24,1)=1,WEEKDAY(J24,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:O33">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+    <cfRule type="expression" dxfId="28" priority="36">
+      <formula>OR(WEEKDAY(K38,1)=1,WEEKDAY(K38,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:P47">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>OR(WEEKDAY(J33,1)=1,WEEKDAY(J33,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:P20 J19:M19 O19:P19">
-    <cfRule type="cellIs" dxfId="39" priority="63" operator="equal">
+    <cfRule type="expression" dxfId="26" priority="18">
+      <formula>OR(WEEKDAY(L46,1)=1,WEEKDAY(L46,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="expression" dxfId="25" priority="10">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="expression" dxfId="24" priority="9">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
+    <cfRule type="expression" dxfId="23" priority="8">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="64">
-      <formula>OR(WEEKDAY(J19,1)=1,WEEKDAY(J19,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:P29">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>OR(WEEKDAY(R33,1)=1,WEEKDAY(R33,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40">
+    <cfRule type="expression" dxfId="20" priority="7">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R42">
+    <cfRule type="expression" dxfId="19" priority="26">
+      <formula>OR(WEEKDAY(R42,1)=1,WEEKDAY(R42,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="50">
-      <formula>OR(WEEKDAY(J29,1)=1,WEEKDAY(J29,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:P38">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:T20">
+    <cfRule type="expression" dxfId="17" priority="60">
+      <formula>OR(WEEKDAY(R20,1)=1,WEEKDAY(R20,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="59" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>OR(WEEKDAY(K38,1)=1,WEEKDAY(K38,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46:P47">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29:T29">
+    <cfRule type="cellIs" dxfId="15" priority="55" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="18">
-      <formula>OR(WEEKDAY(L46,1)=1,WEEKDAY(L46,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="31" priority="10">
-      <formula>#REF!=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="expression" dxfId="30" priority="9">
-      <formula>#REF!=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31">
-    <cfRule type="expression" dxfId="27" priority="8">
-      <formula>#REF!=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R40">
-    <cfRule type="expression" dxfId="26" priority="7">
-      <formula>#REF!=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="expression" dxfId="14" priority="56">
+      <formula>OR(WEEKDAY(R29,1)=1,WEEKDAY(R29,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R47:V47">
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>OR(WEEKDAY(R47,1)=1,WEEKDAY(R47,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
-      <formula>OR(WEEKDAY(R33,1)=1,WEEKDAY(R33,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:W15">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>OR(WEEKDAY(R42,1)=1,WEEKDAY(R42,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20:T20">
-    <cfRule type="cellIs" dxfId="21" priority="59" operator="equal">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>OR(WEEKDAY(R15,1)=1,WEEKDAY(R15,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38:X38">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="60">
-      <formula>OR(WEEKDAY(R20,1)=1,WEEKDAY(R20,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T29">
-    <cfRule type="cellIs" dxfId="19" priority="55" operator="equal">
+    <cfRule type="expression" dxfId="8" priority="32">
+      <formula>OR(WEEKDAY(R38,1)=1,WEEKDAY(R38,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28 U28:X29">
+    <cfRule type="cellIs" dxfId="7" priority="57" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="56">
-      <formula>OR(WEEKDAY(R29,1)=1,WEEKDAY(R29,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R47:V47">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="expression" dxfId="6" priority="58">
+      <formula>OR(WEEKDAY(T28,1)=1,WEEKDAY(T28,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:X20">
+    <cfRule type="cellIs" dxfId="5" priority="61" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22">
-      <formula>OR(WEEKDAY(R47,1)=1,WEEKDAY(R47,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R38:X38">
-    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+    <cfRule type="expression" dxfId="4" priority="62">
+      <formula>OR(WEEKDAY(U19,1)=1,WEEKDAY(U19,1)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37:X37">
+    <cfRule type="expression" dxfId="3" priority="30">
+      <formula>OR(WEEKDAY(U37,1)=1,WEEKDAY(U37,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="29" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="32">
-      <formula>OR(WEEKDAY(R38,1)=1,WEEKDAY(R38,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U19:X20">
-    <cfRule type="cellIs" dxfId="13" priority="61" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V46 W46:X47">
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>OR(WEEKDAY(V46,1)=1,WEEKDAY(V46,1)=7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="62">
-      <formula>OR(WEEKDAY(U19,1)=1,WEEKDAY(U19,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28:X29 T28">
-    <cfRule type="cellIs" dxfId="11" priority="57" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="58">
-      <formula>OR(WEEKDAY(T28,1)=1,WEEKDAY(T28,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U37:X37">
-    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="30">
-      <formula>OR(WEEKDAY(U37,1)=1,WEEKDAY(U37,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W46:X47 V46">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="24">
-      <formula>OR(WEEKDAY(V46,1)=1,WEEKDAY(V46,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:N15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>OR(WEEKDAY(J15,1)=1,WEEKDAY(J15,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15:W15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>OR(WEEKDAY(R15,1)=1,WEEKDAY(R15,1)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:O42">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>OR(WEEKDAY(J42,1)=1,WEEKDAY(J42,1)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
